--- a/03_UsoDeSuelo/P0309/P0309.xlsx
+++ b/03_UsoDeSuelo/P0309/P0309.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4002" uniqueCount="1325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3842" uniqueCount="1325">
   <si>
     <t>DESCRIPCION</t>
   </si>
@@ -146,34 +146,34 @@
     <t>P0309</t>
   </si>
   <si>
-    <t>P0309_TVIVHAB</t>
-  </si>
-  <si>
-    <t>P0309_TVIVPAR</t>
-  </si>
-  <si>
-    <t>P0309_TVIVPARHAB</t>
-  </si>
-  <si>
-    <t>P0309_VIVPAR_DES</t>
-  </si>
-  <si>
-    <t>P0309_VIVPAR_HAB</t>
-  </si>
-  <si>
-    <t>P0309_VIVTOT</t>
-  </si>
-  <si>
     <t>TIPO_SUN</t>
   </si>
   <si>
+    <t>TVIVHAB</t>
+  </si>
+  <si>
+    <t>TVIVPAR</t>
+  </si>
+  <si>
+    <t>TVIVPARHAB</t>
+  </si>
+  <si>
+    <t>VIVPAR_DES</t>
+  </si>
+  <si>
+    <t>VIVPAR_HAB</t>
+  </si>
+  <si>
+    <t>VIVTOT</t>
+  </si>
+  <si>
     <t>Total de viviendas</t>
   </si>
   <si>
     <t>2010</t>
   </si>
   <si>
-    <t>Numero de viviendas</t>
+    <t>viviendas</t>
   </si>
   <si>
     <t>Censo de Población y Vivienda 2010</t>
@@ -263,31 +263,31 @@
     <t>Nombre de la Ciudad, de acuerdo con el Catálogo Sistema Urbano Nacional 2012</t>
   </si>
   <si>
-    <t>Total de viviendas habitadas: Viviendas particulares y colectivas habitadas. Incluye a las viviendas particulares sin información de sus ocupantes.</t>
-  </si>
-  <si>
-    <t>Total de viviendas particulares: Viviendas particulares habitadas, deshabitadas y de uso temporal. Excluye a las viviendas particulares sin información de ocupantes</t>
-  </si>
-  <si>
-    <t>Viviendas particulares habitadas: Viviendas particulares habitadas de cualquier clase: casa independiente, departamento en edificio, vivienda o cuarto en vecindad, vivienda o cuarto de azotea, local no construido para habitación, vivienda móvil, refugios o clase no especificada. Excluye a las viviendas particulares sin información de ocupantes.</t>
-  </si>
-  <si>
-    <t>Viviendas particulares deshabitadas.</t>
-  </si>
-  <si>
-    <t>Viviendas particulares habitadas: Viviendas particulares habitadas de cualquier clase: casa independiente, departamento en edificio, vivienda o cuarto en vecindad, vivienda o cuarto de azotea, local no construido para habitación, vivienda móvil, refugios o clase no especificada. Excluye a las viviendas particulares sin información de ocupantes</t>
-  </si>
-  <si>
-    <t>Total de viviendas: Viviendas particulares habitadas, deshabitadas, de uso temporal y colectivas. Incluye a las viviendas particulares sin información de sus ocupantes</t>
-  </si>
-  <si>
     <t>Tipo de Ciudad, de acuerdo con el Catálogo Sistema Urbano Nacional 2012.
 1 = Zona Metropolitana
 2 = Conurbación
 3 = Centro Urbano</t>
   </si>
   <si>
+    <t>Total de viviendas habitadas: Viviendas particulares y colectivas habitadas. Incluye a las viviendas particulares sin información de sus ocupantes.</t>
+  </si>
+  <si>
+    <t>Total de viviendas particulares: Viviendas particulares habitadas, deshabitadas y de uso temporal. Excluye a las viviendas particulares sin información de ocupantes</t>
+  </si>
+  <si>
+    <t>Total de viviendas particulares habitadas: Viviendas particulares habitadas de cualquier clase: casa independiente, departamento en edificio, vivienda o cuarto en vecindad, vivienda o cuarto de azotea, local no construido para habitación, vivienda móvil, refugios o clase no especificada Incluye a las viviendas particulares sin información de ocupantes.</t>
+  </si>
+  <si>
     <t>Calculo de integridad independiente para cada Dataset de la PCCS (Ver metadatos del Dataset), multiplicador para el calculo de integridad de informacion por Ciudad.</t>
+  </si>
+  <si>
+    <t>Viviendas particulares deshabitadas.</t>
+  </si>
+  <si>
+    <t>Viviendas particulares habitadas: Viviendas particulares habitadas de cualquier clase: casa independiente, departamento en edificio, vivienda o cuarto en vecindad, vivienda o cuarto de azotea, local no construido para habitación, vivienda móvil, refugios o clase no especificada. Excluye a las viviendas particulares sin información de ocupantes</t>
+  </si>
+  <si>
+    <t>Total de viviendas: Viviendas particulares habitadas, deshabitadas, de uso temporal y colectivas. Incluye a las viviendas particulares sin información de sus ocupantes</t>
   </si>
   <si>
     <t>001</t>
@@ -4991,7 +4991,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="4" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>83</v>
@@ -4999,7 +4999,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>84</v>
@@ -5007,7 +5007,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>85</v>
@@ -5015,7 +5015,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="4" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>86</v>
@@ -5059,7 +5059,7 @@
         <v>32</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>41</v>
@@ -7387,25 +7387,25 @@
         <v>40</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -22710,10 +22710,10 @@
         <v>803</v>
       </c>
       <c r="C60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -22727,10 +22727,10 @@
         <v>807</v>
       </c>
       <c r="C61">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D61">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -22744,10 +22744,10 @@
         <v>808</v>
       </c>
       <c r="C62">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D62">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -22761,10 +22761,10 @@
         <v>809</v>
       </c>
       <c r="C63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -22778,10 +22778,10 @@
         <v>819</v>
       </c>
       <c r="C64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -22795,10 +22795,10 @@
         <v>823</v>
       </c>
       <c r="C65">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D65">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -22812,10 +22812,10 @@
         <v>837</v>
       </c>
       <c r="C66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -22829,10 +22829,10 @@
         <v>838</v>
       </c>
       <c r="C67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -22846,10 +22846,10 @@
         <v>844</v>
       </c>
       <c r="C68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -22863,10 +22863,10 @@
         <v>847</v>
       </c>
       <c r="C69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -22880,10 +22880,10 @@
         <v>867</v>
       </c>
       <c r="C70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -22897,10 +22897,10 @@
         <v>870</v>
       </c>
       <c r="C71">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D71">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -22914,10 +22914,10 @@
         <v>872</v>
       </c>
       <c r="C72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -22931,10 +22931,10 @@
         <v>882</v>
       </c>
       <c r="C73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -22948,10 +22948,10 @@
         <v>884</v>
       </c>
       <c r="C74">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -22965,10 +22965,10 @@
         <v>887</v>
       </c>
       <c r="C75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -22982,10 +22982,10 @@
         <v>893</v>
       </c>
       <c r="C76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -22999,10 +22999,10 @@
         <v>906</v>
       </c>
       <c r="C77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -23016,10 +23016,10 @@
         <v>913</v>
       </c>
       <c r="C78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E78">
         <v>1</v>
@@ -23033,10 +23033,10 @@
         <v>922</v>
       </c>
       <c r="C79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -23050,10 +23050,10 @@
         <v>927</v>
       </c>
       <c r="C80">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E80">
         <v>1</v>
@@ -23067,10 +23067,10 @@
         <v>933</v>
       </c>
       <c r="C81">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D81">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -23084,10 +23084,10 @@
         <v>935</v>
       </c>
       <c r="C82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -24018,7 +24018,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G487"/>
+  <dimension ref="A1:G447"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -24045,7 +24045,7 @@
         <v>39</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>36</v>
@@ -32451,16 +32451,16 @@
     </row>
     <row r="367" spans="1:7">
       <c r="A367" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B367" t="s">
-        <v>938</v>
+        <v>965</v>
       </c>
       <c r="C367" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="D367" t="s">
-        <v>803</v>
+        <v>1289</v>
       </c>
       <c r="E367">
         <v>2</v>
@@ -32474,7 +32474,7 @@
     </row>
     <row r="368" spans="1:7">
       <c r="A368" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B368" t="s">
         <v>965</v>
@@ -32497,16 +32497,16 @@
     </row>
     <row r="369" spans="1:7">
       <c r="A369" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B369" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="C369" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D369" t="s">
-        <v>1289</v>
+        <v>809</v>
       </c>
       <c r="E369">
         <v>2</v>
@@ -32520,16 +32520,16 @@
     </row>
     <row r="370" spans="1:7">
       <c r="A370" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B370" t="s">
-        <v>965</v>
+        <v>941</v>
       </c>
       <c r="C370" t="s">
-        <v>366</v>
+        <v>386</v>
       </c>
       <c r="D370" t="s">
-        <v>1289</v>
+        <v>819</v>
       </c>
       <c r="E370">
         <v>2</v>
@@ -32543,16 +32543,16 @@
     </row>
     <row r="371" spans="1:7">
       <c r="A371" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B371" t="s">
-        <v>965</v>
+        <v>942</v>
       </c>
       <c r="C371" t="s">
-        <v>366</v>
+        <v>393</v>
       </c>
       <c r="D371" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="E371">
         <v>2</v>
@@ -32566,16 +32566,16 @@
     </row>
     <row r="372" spans="1:7">
       <c r="A372" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B372" t="s">
-        <v>965</v>
+        <v>947</v>
       </c>
       <c r="C372" t="s">
-        <v>366</v>
+        <v>428</v>
       </c>
       <c r="D372" t="s">
-        <v>1289</v>
+        <v>837</v>
       </c>
       <c r="E372">
         <v>2</v>
@@ -32589,16 +32589,16 @@
     </row>
     <row r="373" spans="1:7">
       <c r="A373" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B373" t="s">
-        <v>965</v>
+        <v>947</v>
       </c>
       <c r="C373" t="s">
-        <v>366</v>
+        <v>429</v>
       </c>
       <c r="D373" t="s">
-        <v>1289</v>
+        <v>838</v>
       </c>
       <c r="E373">
         <v>2</v>
@@ -32612,16 +32612,16 @@
     </row>
     <row r="374" spans="1:7">
       <c r="A374" s="7" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B374" t="s">
-        <v>965</v>
+        <v>947</v>
       </c>
       <c r="C374" t="s">
-        <v>366</v>
+        <v>436</v>
       </c>
       <c r="D374" t="s">
-        <v>1289</v>
+        <v>844</v>
       </c>
       <c r="E374">
         <v>2</v>
@@ -32635,16 +32635,16 @@
     </row>
     <row r="375" spans="1:7">
       <c r="A375" s="7" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="B375" t="s">
-        <v>965</v>
+        <v>948</v>
       </c>
       <c r="C375" t="s">
-        <v>366</v>
+        <v>443</v>
       </c>
       <c r="D375" t="s">
-        <v>1289</v>
+        <v>847</v>
       </c>
       <c r="E375">
         <v>2</v>
@@ -32658,16 +32658,16 @@
     </row>
     <row r="376" spans="1:7">
       <c r="A376" s="7" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="B376" t="s">
-        <v>965</v>
+        <v>951</v>
       </c>
       <c r="C376" t="s">
-        <v>366</v>
+        <v>562</v>
       </c>
       <c r="D376" t="s">
-        <v>1289</v>
+        <v>1291</v>
       </c>
       <c r="E376">
         <v>2</v>
@@ -32681,16 +32681,16 @@
     </row>
     <row r="377" spans="1:7">
       <c r="A377" s="7" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="B377" t="s">
-        <v>965</v>
+        <v>951</v>
       </c>
       <c r="C377" t="s">
-        <v>366</v>
+        <v>568</v>
       </c>
       <c r="D377" t="s">
-        <v>1289</v>
+        <v>870</v>
       </c>
       <c r="E377">
         <v>2</v>
@@ -32704,16 +32704,16 @@
     </row>
     <row r="378" spans="1:7">
       <c r="A378" s="7" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="B378" t="s">
-        <v>965</v>
+        <v>951</v>
       </c>
       <c r="C378" t="s">
-        <v>366</v>
+        <v>571</v>
       </c>
       <c r="D378" t="s">
-        <v>1289</v>
+        <v>872</v>
       </c>
       <c r="E378">
         <v>2</v>
@@ -32727,16 +32727,16 @@
     </row>
     <row r="379" spans="1:7">
       <c r="A379" s="7" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="B379" t="s">
-        <v>965</v>
+        <v>954</v>
       </c>
       <c r="C379" t="s">
-        <v>366</v>
+        <v>615</v>
       </c>
       <c r="D379" t="s">
-        <v>1289</v>
+        <v>882</v>
       </c>
       <c r="E379">
         <v>2</v>
@@ -32750,16 +32750,16 @@
     </row>
     <row r="380" spans="1:7">
       <c r="A380" s="7" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="B380" t="s">
-        <v>966</v>
+        <v>955</v>
       </c>
       <c r="C380" t="s">
-        <v>367</v>
+        <v>632</v>
       </c>
       <c r="D380" t="s">
-        <v>809</v>
+        <v>1292</v>
       </c>
       <c r="E380">
         <v>2</v>
@@ -32773,16 +32773,16 @@
     </row>
     <row r="381" spans="1:7">
       <c r="A381" s="7" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="B381" t="s">
-        <v>966</v>
+        <v>955</v>
       </c>
       <c r="C381" t="s">
-        <v>367</v>
+        <v>636</v>
       </c>
       <c r="D381" t="s">
-        <v>809</v>
+        <v>1293</v>
       </c>
       <c r="E381">
         <v>2</v>
@@ -32796,16 +32796,16 @@
     </row>
     <row r="382" spans="1:7">
       <c r="A382" s="7" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="B382" t="s">
-        <v>941</v>
+        <v>955</v>
       </c>
       <c r="C382" t="s">
-        <v>386</v>
+        <v>646</v>
       </c>
       <c r="D382" t="s">
-        <v>819</v>
+        <v>1294</v>
       </c>
       <c r="E382">
         <v>2</v>
@@ -32819,16 +32819,16 @@
     </row>
     <row r="383" spans="1:7">
       <c r="A383" s="7" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="B383" t="s">
-        <v>941</v>
+        <v>955</v>
       </c>
       <c r="C383" t="s">
-        <v>386</v>
+        <v>641</v>
       </c>
       <c r="D383" t="s">
-        <v>819</v>
+        <v>887</v>
       </c>
       <c r="E383">
         <v>2</v>
@@ -32842,16 +32842,16 @@
     </row>
     <row r="384" spans="1:7">
       <c r="A384" s="7" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="B384" t="s">
-        <v>942</v>
+        <v>958</v>
       </c>
       <c r="C384" t="s">
-        <v>393</v>
+        <v>666</v>
       </c>
       <c r="D384" t="s">
-        <v>1290</v>
+        <v>1295</v>
       </c>
       <c r="E384">
         <v>2</v>
@@ -32865,16 +32865,16 @@
     </row>
     <row r="385" spans="1:7">
       <c r="A385" s="7" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="B385" t="s">
-        <v>942</v>
+        <v>960</v>
       </c>
       <c r="C385" t="s">
-        <v>393</v>
+        <v>682</v>
       </c>
       <c r="D385" t="s">
-        <v>1290</v>
+        <v>1296</v>
       </c>
       <c r="E385">
         <v>2</v>
@@ -32888,16 +32888,16 @@
     </row>
     <row r="386" spans="1:7">
       <c r="A386" s="7" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="B386" t="s">
-        <v>942</v>
+        <v>961</v>
       </c>
       <c r="C386" t="s">
-        <v>393</v>
+        <v>690</v>
       </c>
       <c r="D386" t="s">
-        <v>1290</v>
+        <v>913</v>
       </c>
       <c r="E386">
         <v>2</v>
@@ -32911,16 +32911,16 @@
     </row>
     <row r="387" spans="1:7">
       <c r="A387" s="7" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="B387" t="s">
-        <v>942</v>
+        <v>956</v>
       </c>
       <c r="C387" t="s">
-        <v>393</v>
+        <v>707</v>
       </c>
       <c r="D387" t="s">
-        <v>1290</v>
+        <v>922</v>
       </c>
       <c r="E387">
         <v>2</v>
@@ -32934,16 +32934,16 @@
     </row>
     <row r="388" spans="1:7">
       <c r="A388" s="7" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="B388" t="s">
-        <v>947</v>
+        <v>963</v>
       </c>
       <c r="C388" t="s">
-        <v>428</v>
+        <v>746</v>
       </c>
       <c r="D388" t="s">
-        <v>837</v>
+        <v>1297</v>
       </c>
       <c r="E388">
         <v>2</v>
@@ -32957,16 +32957,16 @@
     </row>
     <row r="389" spans="1:7">
       <c r="A389" s="7" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="B389" t="s">
-        <v>947</v>
+        <v>963</v>
       </c>
       <c r="C389" t="s">
-        <v>428</v>
+        <v>769</v>
       </c>
       <c r="D389" t="s">
-        <v>837</v>
+        <v>927</v>
       </c>
       <c r="E389">
         <v>2</v>
@@ -32980,16 +32980,16 @@
     </row>
     <row r="390" spans="1:7">
       <c r="A390" s="7" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="B390" t="s">
-        <v>947</v>
+        <v>963</v>
       </c>
       <c r="C390" t="s">
-        <v>428</v>
+        <v>788</v>
       </c>
       <c r="D390" t="s">
-        <v>837</v>
+        <v>1298</v>
       </c>
       <c r="E390">
         <v>2</v>
@@ -33003,16 +33003,16 @@
     </row>
     <row r="391" spans="1:7">
       <c r="A391" s="7" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="B391" t="s">
-        <v>947</v>
+        <v>967</v>
       </c>
       <c r="C391" t="s">
-        <v>429</v>
+        <v>798</v>
       </c>
       <c r="D391" t="s">
-        <v>838</v>
+        <v>935</v>
       </c>
       <c r="E391">
         <v>2</v>
@@ -33026,19 +33026,19 @@
     </row>
     <row r="392" spans="1:7">
       <c r="A392" s="7" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="B392" t="s">
-        <v>947</v>
+        <v>965</v>
       </c>
       <c r="C392" t="s">
-        <v>429</v>
+        <v>365</v>
       </c>
       <c r="D392" t="s">
-        <v>838</v>
+        <v>806</v>
       </c>
       <c r="E392">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F392" t="b">
         <v>1</v>
@@ -33049,19 +33049,19 @@
     </row>
     <row r="393" spans="1:7">
       <c r="A393" s="7" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="B393" t="s">
-        <v>947</v>
+        <v>966</v>
       </c>
       <c r="C393" t="s">
-        <v>429</v>
+        <v>368</v>
       </c>
       <c r="D393" t="s">
-        <v>838</v>
+        <v>1299</v>
       </c>
       <c r="E393">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F393" t="b">
         <v>1</v>
@@ -33072,19 +33072,19 @@
     </row>
     <row r="394" spans="1:7">
       <c r="A394" s="7" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="B394" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="C394" t="s">
-        <v>436</v>
+        <v>369</v>
       </c>
       <c r="D394" t="s">
-        <v>844</v>
+        <v>1300</v>
       </c>
       <c r="E394">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F394" t="b">
         <v>1</v>
@@ -33095,19 +33095,19 @@
     </row>
     <row r="395" spans="1:7">
       <c r="A395" s="7" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="B395" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="C395" t="s">
-        <v>436</v>
+        <v>378</v>
       </c>
       <c r="D395" t="s">
-        <v>844</v>
+        <v>816</v>
       </c>
       <c r="E395">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F395" t="b">
         <v>1</v>
@@ -33118,19 +33118,19 @@
     </row>
     <row r="396" spans="1:7">
       <c r="A396" s="7" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="B396" t="s">
-        <v>948</v>
+        <v>942</v>
       </c>
       <c r="C396" t="s">
-        <v>443</v>
+        <v>390</v>
       </c>
       <c r="D396" t="s">
-        <v>847</v>
+        <v>821</v>
       </c>
       <c r="E396">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F396" t="b">
         <v>1</v>
@@ -33141,19 +33141,19 @@
     </row>
     <row r="397" spans="1:7">
       <c r="A397" s="7" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="B397" t="s">
-        <v>948</v>
+        <v>942</v>
       </c>
       <c r="C397" t="s">
-        <v>443</v>
+        <v>392</v>
       </c>
       <c r="D397" t="s">
-        <v>847</v>
+        <v>822</v>
       </c>
       <c r="E397">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F397" t="b">
         <v>1</v>
@@ -33164,19 +33164,19 @@
     </row>
     <row r="398" spans="1:7">
       <c r="A398" s="7" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="B398" t="s">
-        <v>951</v>
+        <v>943</v>
       </c>
       <c r="C398" t="s">
-        <v>562</v>
+        <v>397</v>
       </c>
       <c r="D398" t="s">
-        <v>1291</v>
+        <v>825</v>
       </c>
       <c r="E398">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F398" t="b">
         <v>1</v>
@@ -33187,19 +33187,19 @@
     </row>
     <row r="399" spans="1:7">
       <c r="A399" s="7" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="B399" t="s">
-        <v>951</v>
+        <v>943</v>
       </c>
       <c r="C399" t="s">
-        <v>562</v>
+        <v>399</v>
       </c>
       <c r="D399" t="s">
-        <v>1291</v>
+        <v>826</v>
       </c>
       <c r="E399">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F399" t="b">
         <v>1</v>
@@ -33210,19 +33210,19 @@
     </row>
     <row r="400" spans="1:7">
       <c r="A400" s="7" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="B400" t="s">
-        <v>951</v>
+        <v>943</v>
       </c>
       <c r="C400" t="s">
-        <v>562</v>
+        <v>400</v>
       </c>
       <c r="D400" t="s">
-        <v>1291</v>
+        <v>827</v>
       </c>
       <c r="E400">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F400" t="b">
         <v>1</v>
@@ -33233,19 +33233,19 @@
     </row>
     <row r="401" spans="1:7">
       <c r="A401" s="7" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="B401" t="s">
-        <v>951</v>
+        <v>943</v>
       </c>
       <c r="C401" t="s">
-        <v>568</v>
+        <v>402</v>
       </c>
       <c r="D401" t="s">
-        <v>870</v>
+        <v>829</v>
       </c>
       <c r="E401">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F401" t="b">
         <v>1</v>
@@ -33256,19 +33256,19 @@
     </row>
     <row r="402" spans="1:7">
       <c r="A402" s="7" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="B402" t="s">
-        <v>951</v>
+        <v>940</v>
       </c>
       <c r="C402" t="s">
-        <v>568</v>
+        <v>419</v>
       </c>
       <c r="D402" t="s">
-        <v>870</v>
+        <v>1301</v>
       </c>
       <c r="E402">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F402" t="b">
         <v>1</v>
@@ -33279,19 +33279,19 @@
     </row>
     <row r="403" spans="1:7">
       <c r="A403" s="7" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="B403" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="C403" t="s">
-        <v>568</v>
+        <v>422</v>
       </c>
       <c r="D403" t="s">
-        <v>870</v>
+        <v>832</v>
       </c>
       <c r="E403">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F403" t="b">
         <v>1</v>
@@ -33302,19 +33302,19 @@
     </row>
     <row r="404" spans="1:7">
       <c r="A404" s="7" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="B404" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="C404" t="s">
-        <v>568</v>
+        <v>423</v>
       </c>
       <c r="D404" t="s">
-        <v>870</v>
+        <v>833</v>
       </c>
       <c r="E404">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F404" t="b">
         <v>1</v>
@@ -33325,19 +33325,19 @@
     </row>
     <row r="405" spans="1:7">
       <c r="A405" s="7" t="s">
-        <v>158</v>
+        <v>182</v>
       </c>
       <c r="B405" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="C405" t="s">
-        <v>571</v>
+        <v>426</v>
       </c>
       <c r="D405" t="s">
-        <v>872</v>
+        <v>835</v>
       </c>
       <c r="E405">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F405" t="b">
         <v>1</v>
@@ -33348,19 +33348,19 @@
     </row>
     <row r="406" spans="1:7">
       <c r="A406" s="7" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="B406" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="C406" t="s">
-        <v>571</v>
+        <v>427</v>
       </c>
       <c r="D406" t="s">
-        <v>872</v>
+        <v>1302</v>
       </c>
       <c r="E406">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F406" t="b">
         <v>1</v>
@@ -33371,19 +33371,19 @@
     </row>
     <row r="407" spans="1:7">
       <c r="A407" s="7" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="B407" t="s">
-        <v>954</v>
+        <v>947</v>
       </c>
       <c r="C407" t="s">
-        <v>615</v>
+        <v>434</v>
       </c>
       <c r="D407" t="s">
-        <v>882</v>
+        <v>843</v>
       </c>
       <c r="E407">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F407" t="b">
         <v>1</v>
@@ -33394,19 +33394,19 @@
     </row>
     <row r="408" spans="1:7">
       <c r="A408" s="7" t="s">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="B408" t="s">
-        <v>954</v>
+        <v>947</v>
       </c>
       <c r="C408" t="s">
-        <v>615</v>
+        <v>439</v>
       </c>
       <c r="D408" t="s">
-        <v>882</v>
+        <v>845</v>
       </c>
       <c r="E408">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F408" t="b">
         <v>1</v>
@@ -33417,19 +33417,19 @@
     </row>
     <row r="409" spans="1:7">
       <c r="A409" s="7" t="s">
-        <v>160</v>
+        <v>186</v>
       </c>
       <c r="B409" t="s">
-        <v>955</v>
+        <v>948</v>
       </c>
       <c r="C409" t="s">
-        <v>632</v>
+        <v>444</v>
       </c>
       <c r="D409" t="s">
-        <v>1292</v>
+        <v>848</v>
       </c>
       <c r="E409">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F409" t="b">
         <v>1</v>
@@ -33440,19 +33440,19 @@
     </row>
     <row r="410" spans="1:7">
       <c r="A410" s="7" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
       <c r="B410" t="s">
-        <v>955</v>
+        <v>948</v>
       </c>
       <c r="C410" t="s">
-        <v>632</v>
+        <v>445</v>
       </c>
       <c r="D410" t="s">
-        <v>1292</v>
+        <v>1303</v>
       </c>
       <c r="E410">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F410" t="b">
         <v>1</v>
@@ -33463,19 +33463,19 @@
     </row>
     <row r="411" spans="1:7">
       <c r="A411" s="7" t="s">
-        <v>160</v>
+        <v>188</v>
       </c>
       <c r="B411" t="s">
-        <v>955</v>
+        <v>948</v>
       </c>
       <c r="C411" t="s">
-        <v>636</v>
+        <v>446</v>
       </c>
       <c r="D411" t="s">
-        <v>1293</v>
+        <v>850</v>
       </c>
       <c r="E411">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F411" t="b">
         <v>1</v>
@@ -33486,19 +33486,19 @@
     </row>
     <row r="412" spans="1:7">
       <c r="A412" s="7" t="s">
-        <v>160</v>
+        <v>189</v>
       </c>
       <c r="B412" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="C412" t="s">
-        <v>646</v>
+        <v>463</v>
       </c>
       <c r="D412" t="s">
-        <v>1294</v>
+        <v>854</v>
       </c>
       <c r="E412">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F412" t="b">
         <v>1</v>
@@ -33509,19 +33509,19 @@
     </row>
     <row r="413" spans="1:7">
       <c r="A413" s="7" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="B413" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="C413" t="s">
-        <v>646</v>
+        <v>464</v>
       </c>
       <c r="D413" t="s">
-        <v>1294</v>
+        <v>1304</v>
       </c>
       <c r="E413">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F413" t="b">
         <v>1</v>
@@ -33532,19 +33532,19 @@
     </row>
     <row r="414" spans="1:7">
       <c r="A414" s="7" t="s">
-        <v>161</v>
+        <v>191</v>
       </c>
       <c r="B414" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="C414" t="s">
-        <v>641</v>
+        <v>468</v>
       </c>
       <c r="D414" t="s">
-        <v>887</v>
+        <v>857</v>
       </c>
       <c r="E414">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F414" t="b">
         <v>1</v>
@@ -33555,19 +33555,19 @@
     </row>
     <row r="415" spans="1:7">
       <c r="A415" s="7" t="s">
-        <v>161</v>
+        <v>192</v>
       </c>
       <c r="B415" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="C415" t="s">
-        <v>641</v>
+        <v>473</v>
       </c>
       <c r="D415" t="s">
-        <v>887</v>
+        <v>860</v>
       </c>
       <c r="E415">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F415" t="b">
         <v>1</v>
@@ -33578,19 +33578,19 @@
     </row>
     <row r="416" spans="1:7">
       <c r="A416" s="7" t="s">
-        <v>162</v>
+        <v>193</v>
       </c>
       <c r="B416" t="s">
-        <v>958</v>
+        <v>951</v>
       </c>
       <c r="C416" t="s">
-        <v>666</v>
+        <v>558</v>
       </c>
       <c r="D416" t="s">
-        <v>1295</v>
+        <v>1305</v>
       </c>
       <c r="E416">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F416" t="b">
         <v>1</v>
@@ -33601,19 +33601,19 @@
     </row>
     <row r="417" spans="1:7">
       <c r="A417" s="7" t="s">
-        <v>162</v>
+        <v>194</v>
       </c>
       <c r="B417" t="s">
-        <v>958</v>
+        <v>951</v>
       </c>
       <c r="C417" t="s">
-        <v>666</v>
+        <v>560</v>
       </c>
       <c r="D417" t="s">
-        <v>1295</v>
+        <v>1306</v>
       </c>
       <c r="E417">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F417" t="b">
         <v>1</v>
@@ -33624,19 +33624,19 @@
     </row>
     <row r="418" spans="1:7">
       <c r="A418" s="7" t="s">
-        <v>163</v>
+        <v>195</v>
       </c>
       <c r="B418" t="s">
-        <v>960</v>
+        <v>951</v>
       </c>
       <c r="C418" t="s">
-        <v>682</v>
+        <v>564</v>
       </c>
       <c r="D418" t="s">
-        <v>1296</v>
+        <v>868</v>
       </c>
       <c r="E418">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F418" t="b">
         <v>1</v>
@@ -33647,19 +33647,19 @@
     </row>
     <row r="419" spans="1:7">
       <c r="A419" s="7" t="s">
-        <v>163</v>
+        <v>196</v>
       </c>
       <c r="B419" t="s">
-        <v>960</v>
+        <v>951</v>
       </c>
       <c r="C419" t="s">
-        <v>682</v>
+        <v>566</v>
       </c>
       <c r="D419" t="s">
-        <v>1296</v>
+        <v>1307</v>
       </c>
       <c r="E419">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F419" t="b">
         <v>1</v>
@@ -33670,19 +33670,19 @@
     </row>
     <row r="420" spans="1:7">
       <c r="A420" s="7" t="s">
-        <v>164</v>
+        <v>197</v>
       </c>
       <c r="B420" t="s">
-        <v>961</v>
+        <v>951</v>
       </c>
       <c r="C420" t="s">
-        <v>690</v>
+        <v>569</v>
       </c>
       <c r="D420" t="s">
-        <v>913</v>
+        <v>871</v>
       </c>
       <c r="E420">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F420" t="b">
         <v>1</v>
@@ -33693,19 +33693,19 @@
     </row>
     <row r="421" spans="1:7">
       <c r="A421" s="7" t="s">
-        <v>164</v>
+        <v>198</v>
       </c>
       <c r="B421" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
       <c r="C421" t="s">
-        <v>690</v>
+        <v>597</v>
       </c>
       <c r="D421" t="s">
-        <v>913</v>
+        <v>877</v>
       </c>
       <c r="E421">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F421" t="b">
         <v>1</v>
@@ -33716,19 +33716,19 @@
     </row>
     <row r="422" spans="1:7">
       <c r="A422" s="7" t="s">
-        <v>165</v>
+        <v>199</v>
       </c>
       <c r="B422" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="C422" t="s">
-        <v>707</v>
+        <v>603</v>
       </c>
       <c r="D422" t="s">
-        <v>922</v>
+        <v>878</v>
       </c>
       <c r="E422">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F422" t="b">
         <v>1</v>
@@ -33739,19 +33739,19 @@
     </row>
     <row r="423" spans="1:7">
       <c r="A423" s="7" t="s">
-        <v>165</v>
+        <v>200</v>
       </c>
       <c r="B423" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="C423" t="s">
-        <v>707</v>
+        <v>604</v>
       </c>
       <c r="D423" t="s">
-        <v>922</v>
+        <v>879</v>
       </c>
       <c r="E423">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F423" t="b">
         <v>1</v>
@@ -33762,19 +33762,19 @@
     </row>
     <row r="424" spans="1:7">
       <c r="A424" s="7" t="s">
-        <v>166</v>
+        <v>201</v>
       </c>
       <c r="B424" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="C424" t="s">
-        <v>746</v>
+        <v>634</v>
       </c>
       <c r="D424" t="s">
-        <v>1297</v>
+        <v>885</v>
       </c>
       <c r="E424">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F424" t="b">
         <v>1</v>
@@ -33785,19 +33785,19 @@
     </row>
     <row r="425" spans="1:7">
       <c r="A425" s="7" t="s">
-        <v>166</v>
+        <v>202</v>
       </c>
       <c r="B425" t="s">
-        <v>963</v>
+        <v>957</v>
       </c>
       <c r="C425" t="s">
-        <v>769</v>
+        <v>663</v>
       </c>
       <c r="D425" t="s">
-        <v>927</v>
+        <v>890</v>
       </c>
       <c r="E425">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F425" t="b">
         <v>1</v>
@@ -33808,19 +33808,19 @@
     </row>
     <row r="426" spans="1:7">
       <c r="A426" s="7" t="s">
-        <v>166</v>
+        <v>203</v>
       </c>
       <c r="B426" t="s">
-        <v>963</v>
+        <v>958</v>
       </c>
       <c r="C426" t="s">
-        <v>769</v>
+        <v>664</v>
       </c>
       <c r="D426" t="s">
-        <v>927</v>
+        <v>891</v>
       </c>
       <c r="E426">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F426" t="b">
         <v>1</v>
@@ -33831,19 +33831,19 @@
     </row>
     <row r="427" spans="1:7">
       <c r="A427" s="7" t="s">
-        <v>167</v>
+        <v>204</v>
       </c>
       <c r="B427" t="s">
-        <v>963</v>
+        <v>958</v>
       </c>
       <c r="C427" t="s">
-        <v>788</v>
+        <v>668</v>
       </c>
       <c r="D427" t="s">
-        <v>1298</v>
+        <v>1308</v>
       </c>
       <c r="E427">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F427" t="b">
         <v>1</v>
@@ -33854,19 +33854,19 @@
     </row>
     <row r="428" spans="1:7">
       <c r="A428" s="7" t="s">
-        <v>167</v>
+        <v>205</v>
       </c>
       <c r="B428" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="C428" t="s">
-        <v>788</v>
+        <v>670</v>
       </c>
       <c r="D428" t="s">
-        <v>1298</v>
+        <v>896</v>
       </c>
       <c r="E428">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F428" t="b">
         <v>1</v>
@@ -33877,19 +33877,19 @@
     </row>
     <row r="429" spans="1:7">
       <c r="A429" s="7" t="s">
-        <v>167</v>
+        <v>206</v>
       </c>
       <c r="B429" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="C429" t="s">
-        <v>788</v>
+        <v>671</v>
       </c>
       <c r="D429" t="s">
-        <v>1298</v>
+        <v>897</v>
       </c>
       <c r="E429">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F429" t="b">
         <v>1</v>
@@ -33900,19 +33900,19 @@
     </row>
     <row r="430" spans="1:7">
       <c r="A430" s="7" t="s">
-        <v>168</v>
+        <v>207</v>
       </c>
       <c r="B430" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="C430" t="s">
-        <v>798</v>
+        <v>675</v>
       </c>
       <c r="D430" t="s">
-        <v>935</v>
+        <v>1309</v>
       </c>
       <c r="E430">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F430" t="b">
         <v>1</v>
@@ -33923,19 +33923,19 @@
     </row>
     <row r="431" spans="1:7">
       <c r="A431" s="7" t="s">
-        <v>168</v>
+        <v>208</v>
       </c>
       <c r="B431" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="C431" t="s">
-        <v>798</v>
+        <v>676</v>
       </c>
       <c r="D431" t="s">
-        <v>935</v>
+        <v>1310</v>
       </c>
       <c r="E431">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F431" t="b">
         <v>1</v>
@@ -33946,16 +33946,16 @@
     </row>
     <row r="432" spans="1:7">
       <c r="A432" s="7" t="s">
-        <v>169</v>
+        <v>209</v>
       </c>
       <c r="B432" t="s">
-        <v>965</v>
+        <v>968</v>
       </c>
       <c r="C432" t="s">
-        <v>365</v>
+        <v>677</v>
       </c>
       <c r="D432" t="s">
-        <v>806</v>
+        <v>901</v>
       </c>
       <c r="E432">
         <v>3</v>
@@ -33969,16 +33969,16 @@
     </row>
     <row r="433" spans="1:7">
       <c r="A433" s="7" t="s">
-        <v>170</v>
+        <v>210</v>
       </c>
       <c r="B433" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="C433" t="s">
-        <v>368</v>
+        <v>678</v>
       </c>
       <c r="D433" t="s">
-        <v>1299</v>
+        <v>902</v>
       </c>
       <c r="E433">
         <v>3</v>
@@ -33992,16 +33992,16 @@
     </row>
     <row r="434" spans="1:7">
       <c r="A434" s="7" t="s">
-        <v>171</v>
+        <v>211</v>
       </c>
       <c r="B434" t="s">
-        <v>939</v>
+        <v>968</v>
       </c>
       <c r="C434" t="s">
-        <v>369</v>
+        <v>679</v>
       </c>
       <c r="D434" t="s">
-        <v>1300</v>
+        <v>1311</v>
       </c>
       <c r="E434">
         <v>3</v>
@@ -34015,16 +34015,16 @@
     </row>
     <row r="435" spans="1:7">
       <c r="A435" s="7" t="s">
-        <v>172</v>
+        <v>212</v>
       </c>
       <c r="B435" t="s">
-        <v>939</v>
+        <v>960</v>
       </c>
       <c r="C435" t="s">
-        <v>378</v>
+        <v>680</v>
       </c>
       <c r="D435" t="s">
-        <v>816</v>
+        <v>904</v>
       </c>
       <c r="E435">
         <v>3</v>
@@ -34038,16 +34038,16 @@
     </row>
     <row r="436" spans="1:7">
       <c r="A436" s="7" t="s">
-        <v>173</v>
+        <v>213</v>
       </c>
       <c r="B436" t="s">
-        <v>942</v>
+        <v>960</v>
       </c>
       <c r="C436" t="s">
-        <v>390</v>
+        <v>681</v>
       </c>
       <c r="D436" t="s">
-        <v>821</v>
+        <v>1312</v>
       </c>
       <c r="E436">
         <v>3</v>
@@ -34061,16 +34061,16 @@
     </row>
     <row r="437" spans="1:7">
       <c r="A437" s="7" t="s">
-        <v>174</v>
+        <v>214</v>
       </c>
       <c r="B437" t="s">
-        <v>942</v>
+        <v>960</v>
       </c>
       <c r="C437" t="s">
-        <v>392</v>
+        <v>685</v>
       </c>
       <c r="D437" t="s">
-        <v>822</v>
+        <v>908</v>
       </c>
       <c r="E437">
         <v>3</v>
@@ -34084,16 +34084,16 @@
     </row>
     <row r="438" spans="1:7">
       <c r="A438" s="7" t="s">
-        <v>175</v>
+        <v>215</v>
       </c>
       <c r="B438" t="s">
-        <v>943</v>
+        <v>960</v>
       </c>
       <c r="C438" t="s">
-        <v>397</v>
+        <v>686</v>
       </c>
       <c r="D438" t="s">
-        <v>825</v>
+        <v>909</v>
       </c>
       <c r="E438">
         <v>3</v>
@@ -34107,16 +34107,16 @@
     </row>
     <row r="439" spans="1:7">
       <c r="A439" s="7" t="s">
-        <v>176</v>
+        <v>216</v>
       </c>
       <c r="B439" t="s">
-        <v>943</v>
+        <v>960</v>
       </c>
       <c r="C439" t="s">
-        <v>399</v>
+        <v>687</v>
       </c>
       <c r="D439" t="s">
-        <v>826</v>
+        <v>1261</v>
       </c>
       <c r="E439">
         <v>3</v>
@@ -34130,16 +34130,16 @@
     </row>
     <row r="440" spans="1:7">
       <c r="A440" s="7" t="s">
-        <v>177</v>
+        <v>217</v>
       </c>
       <c r="B440" t="s">
-        <v>943</v>
+        <v>960</v>
       </c>
       <c r="C440" t="s">
-        <v>400</v>
+        <v>688</v>
       </c>
       <c r="D440" t="s">
-        <v>827</v>
+        <v>911</v>
       </c>
       <c r="E440">
         <v>3</v>
@@ -34153,16 +34153,16 @@
     </row>
     <row r="441" spans="1:7">
       <c r="A441" s="7" t="s">
-        <v>178</v>
+        <v>218</v>
       </c>
       <c r="B441" t="s">
-        <v>943</v>
+        <v>960</v>
       </c>
       <c r="C441" t="s">
-        <v>402</v>
+        <v>689</v>
       </c>
       <c r="D441" t="s">
-        <v>829</v>
+        <v>912</v>
       </c>
       <c r="E441">
         <v>3</v>
@@ -34176,16 +34176,16 @@
     </row>
     <row r="442" spans="1:7">
       <c r="A442" s="7" t="s">
-        <v>179</v>
+        <v>219</v>
       </c>
       <c r="B442" t="s">
-        <v>940</v>
+        <v>962</v>
       </c>
       <c r="C442" t="s">
-        <v>419</v>
+        <v>695</v>
       </c>
       <c r="D442" t="s">
-        <v>1301</v>
+        <v>1313</v>
       </c>
       <c r="E442">
         <v>3</v>
@@ -34199,16 +34199,16 @@
     </row>
     <row r="443" spans="1:7">
       <c r="A443" s="7" t="s">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="B443" t="s">
-        <v>947</v>
+        <v>962</v>
       </c>
       <c r="C443" t="s">
-        <v>422</v>
+        <v>701</v>
       </c>
       <c r="D443" t="s">
-        <v>832</v>
+        <v>1314</v>
       </c>
       <c r="E443">
         <v>3</v>
@@ -34222,16 +34222,16 @@
     </row>
     <row r="444" spans="1:7">
       <c r="A444" s="7" t="s">
-        <v>181</v>
+        <v>221</v>
       </c>
       <c r="B444" t="s">
-        <v>947</v>
+        <v>963</v>
       </c>
       <c r="C444" t="s">
-        <v>423</v>
+        <v>783</v>
       </c>
       <c r="D444" t="s">
-        <v>833</v>
+        <v>932</v>
       </c>
       <c r="E444">
         <v>3</v>
@@ -34245,19 +34245,19 @@
     </row>
     <row r="445" spans="1:7">
       <c r="A445" s="7" t="s">
-        <v>182</v>
+        <v>142</v>
       </c>
       <c r="B445" t="s">
-        <v>947</v>
+        <v>967</v>
       </c>
       <c r="C445" t="s">
-        <v>426</v>
+        <v>799</v>
       </c>
       <c r="D445" t="s">
-        <v>835</v>
+        <v>1134</v>
       </c>
       <c r="E445">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F445" t="b">
         <v>1</v>
@@ -34268,19 +34268,19 @@
     </row>
     <row r="446" spans="1:7">
       <c r="A446" s="7" t="s">
-        <v>183</v>
+        <v>142</v>
       </c>
       <c r="B446" t="s">
-        <v>947</v>
+        <v>967</v>
       </c>
       <c r="C446" t="s">
-        <v>427</v>
+        <v>800</v>
       </c>
       <c r="D446" t="s">
-        <v>1302</v>
+        <v>1315</v>
       </c>
       <c r="E446">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F446" t="b">
         <v>1</v>
@@ -34291,944 +34291,24 @@
     </row>
     <row r="447" spans="1:7">
       <c r="A447" s="7" t="s">
-        <v>184</v>
+        <v>142</v>
       </c>
       <c r="B447" t="s">
-        <v>947</v>
+        <v>967</v>
       </c>
       <c r="C447" t="s">
-        <v>434</v>
+        <v>801</v>
       </c>
       <c r="D447" t="s">
-        <v>843</v>
+        <v>1316</v>
       </c>
       <c r="E447">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F447" t="b">
         <v>1</v>
       </c>
       <c r="G447">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="448" spans="1:7">
-      <c r="A448" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="B448" t="s">
-        <v>947</v>
-      </c>
-      <c r="C448" t="s">
-        <v>439</v>
-      </c>
-      <c r="D448" t="s">
-        <v>845</v>
-      </c>
-      <c r="E448">
-        <v>3</v>
-      </c>
-      <c r="F448" t="b">
-        <v>1</v>
-      </c>
-      <c r="G448">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="449" spans="1:7">
-      <c r="A449" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="B449" t="s">
-        <v>948</v>
-      </c>
-      <c r="C449" t="s">
-        <v>444</v>
-      </c>
-      <c r="D449" t="s">
-        <v>848</v>
-      </c>
-      <c r="E449">
-        <v>3</v>
-      </c>
-      <c r="F449" t="b">
-        <v>1</v>
-      </c>
-      <c r="G449">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="450" spans="1:7">
-      <c r="A450" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="B450" t="s">
-        <v>948</v>
-      </c>
-      <c r="C450" t="s">
-        <v>445</v>
-      </c>
-      <c r="D450" t="s">
-        <v>1303</v>
-      </c>
-      <c r="E450">
-        <v>3</v>
-      </c>
-      <c r="F450" t="b">
-        <v>1</v>
-      </c>
-      <c r="G450">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="451" spans="1:7">
-      <c r="A451" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="B451" t="s">
-        <v>948</v>
-      </c>
-      <c r="C451" t="s">
-        <v>446</v>
-      </c>
-      <c r="D451" t="s">
-        <v>850</v>
-      </c>
-      <c r="E451">
-        <v>3</v>
-      </c>
-      <c r="F451" t="b">
-        <v>1</v>
-      </c>
-      <c r="G451">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="452" spans="1:7">
-      <c r="A452" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="B452" t="s">
-        <v>949</v>
-      </c>
-      <c r="C452" t="s">
-        <v>463</v>
-      </c>
-      <c r="D452" t="s">
-        <v>854</v>
-      </c>
-      <c r="E452">
-        <v>3</v>
-      </c>
-      <c r="F452" t="b">
-        <v>1</v>
-      </c>
-      <c r="G452">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="453" spans="1:7">
-      <c r="A453" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="B453" t="s">
-        <v>949</v>
-      </c>
-      <c r="C453" t="s">
-        <v>464</v>
-      </c>
-      <c r="D453" t="s">
-        <v>1304</v>
-      </c>
-      <c r="E453">
-        <v>3</v>
-      </c>
-      <c r="F453" t="b">
-        <v>1</v>
-      </c>
-      <c r="G453">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="454" spans="1:7">
-      <c r="A454" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="B454" t="s">
-        <v>949</v>
-      </c>
-      <c r="C454" t="s">
-        <v>468</v>
-      </c>
-      <c r="D454" t="s">
-        <v>857</v>
-      </c>
-      <c r="E454">
-        <v>3</v>
-      </c>
-      <c r="F454" t="b">
-        <v>1</v>
-      </c>
-      <c r="G454">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="455" spans="1:7">
-      <c r="A455" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="B455" t="s">
-        <v>949</v>
-      </c>
-      <c r="C455" t="s">
-        <v>473</v>
-      </c>
-      <c r="D455" t="s">
-        <v>860</v>
-      </c>
-      <c r="E455">
-        <v>3</v>
-      </c>
-      <c r="F455" t="b">
-        <v>1</v>
-      </c>
-      <c r="G455">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="456" spans="1:7">
-      <c r="A456" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="B456" t="s">
-        <v>951</v>
-      </c>
-      <c r="C456" t="s">
-        <v>558</v>
-      </c>
-      <c r="D456" t="s">
-        <v>1305</v>
-      </c>
-      <c r="E456">
-        <v>3</v>
-      </c>
-      <c r="F456" t="b">
-        <v>1</v>
-      </c>
-      <c r="G456">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="457" spans="1:7">
-      <c r="A457" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="B457" t="s">
-        <v>951</v>
-      </c>
-      <c r="C457" t="s">
-        <v>560</v>
-      </c>
-      <c r="D457" t="s">
-        <v>1306</v>
-      </c>
-      <c r="E457">
-        <v>3</v>
-      </c>
-      <c r="F457" t="b">
-        <v>1</v>
-      </c>
-      <c r="G457">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="458" spans="1:7">
-      <c r="A458" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="B458" t="s">
-        <v>951</v>
-      </c>
-      <c r="C458" t="s">
-        <v>564</v>
-      </c>
-      <c r="D458" t="s">
-        <v>868</v>
-      </c>
-      <c r="E458">
-        <v>3</v>
-      </c>
-      <c r="F458" t="b">
-        <v>1</v>
-      </c>
-      <c r="G458">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="459" spans="1:7">
-      <c r="A459" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="B459" t="s">
-        <v>951</v>
-      </c>
-      <c r="C459" t="s">
-        <v>566</v>
-      </c>
-      <c r="D459" t="s">
-        <v>1307</v>
-      </c>
-      <c r="E459">
-        <v>3</v>
-      </c>
-      <c r="F459" t="b">
-        <v>1</v>
-      </c>
-      <c r="G459">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="460" spans="1:7">
-      <c r="A460" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="B460" t="s">
-        <v>951</v>
-      </c>
-      <c r="C460" t="s">
-        <v>569</v>
-      </c>
-      <c r="D460" t="s">
-        <v>871</v>
-      </c>
-      <c r="E460">
-        <v>3</v>
-      </c>
-      <c r="F460" t="b">
-        <v>1</v>
-      </c>
-      <c r="G460">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="461" spans="1:7">
-      <c r="A461" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="B461" t="s">
-        <v>953</v>
-      </c>
-      <c r="C461" t="s">
-        <v>597</v>
-      </c>
-      <c r="D461" t="s">
-        <v>877</v>
-      </c>
-      <c r="E461">
-        <v>3</v>
-      </c>
-      <c r="F461" t="b">
-        <v>1</v>
-      </c>
-      <c r="G461">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="462" spans="1:7">
-      <c r="A462" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="B462" t="s">
-        <v>954</v>
-      </c>
-      <c r="C462" t="s">
-        <v>603</v>
-      </c>
-      <c r="D462" t="s">
-        <v>878</v>
-      </c>
-      <c r="E462">
-        <v>3</v>
-      </c>
-      <c r="F462" t="b">
-        <v>1</v>
-      </c>
-      <c r="G462">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="463" spans="1:7">
-      <c r="A463" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="B463" t="s">
-        <v>954</v>
-      </c>
-      <c r="C463" t="s">
-        <v>604</v>
-      </c>
-      <c r="D463" t="s">
-        <v>879</v>
-      </c>
-      <c r="E463">
-        <v>3</v>
-      </c>
-      <c r="F463" t="b">
-        <v>1</v>
-      </c>
-      <c r="G463">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="464" spans="1:7">
-      <c r="A464" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="B464" t="s">
-        <v>955</v>
-      </c>
-      <c r="C464" t="s">
-        <v>634</v>
-      </c>
-      <c r="D464" t="s">
-        <v>885</v>
-      </c>
-      <c r="E464">
-        <v>3</v>
-      </c>
-      <c r="F464" t="b">
-        <v>1</v>
-      </c>
-      <c r="G464">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="465" spans="1:7">
-      <c r="A465" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="B465" t="s">
-        <v>957</v>
-      </c>
-      <c r="C465" t="s">
-        <v>663</v>
-      </c>
-      <c r="D465" t="s">
-        <v>890</v>
-      </c>
-      <c r="E465">
-        <v>3</v>
-      </c>
-      <c r="F465" t="b">
-        <v>1</v>
-      </c>
-      <c r="G465">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="466" spans="1:7">
-      <c r="A466" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="B466" t="s">
-        <v>958</v>
-      </c>
-      <c r="C466" t="s">
-        <v>664</v>
-      </c>
-      <c r="D466" t="s">
-        <v>891</v>
-      </c>
-      <c r="E466">
-        <v>3</v>
-      </c>
-      <c r="F466" t="b">
-        <v>1</v>
-      </c>
-      <c r="G466">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="467" spans="1:7">
-      <c r="A467" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="B467" t="s">
-        <v>958</v>
-      </c>
-      <c r="C467" t="s">
-        <v>668</v>
-      </c>
-      <c r="D467" t="s">
-        <v>1308</v>
-      </c>
-      <c r="E467">
-        <v>3</v>
-      </c>
-      <c r="F467" t="b">
-        <v>1</v>
-      </c>
-      <c r="G467">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="468" spans="1:7">
-      <c r="A468" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="B468" t="s">
-        <v>959</v>
-      </c>
-      <c r="C468" t="s">
-        <v>670</v>
-      </c>
-      <c r="D468" t="s">
-        <v>896</v>
-      </c>
-      <c r="E468">
-        <v>3</v>
-      </c>
-      <c r="F468" t="b">
-        <v>1</v>
-      </c>
-      <c r="G468">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="469" spans="1:7">
-      <c r="A469" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="B469" t="s">
-        <v>959</v>
-      </c>
-      <c r="C469" t="s">
-        <v>671</v>
-      </c>
-      <c r="D469" t="s">
-        <v>897</v>
-      </c>
-      <c r="E469">
-        <v>3</v>
-      </c>
-      <c r="F469" t="b">
-        <v>1</v>
-      </c>
-      <c r="G469">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="470" spans="1:7">
-      <c r="A470" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="B470" t="s">
-        <v>968</v>
-      </c>
-      <c r="C470" t="s">
-        <v>675</v>
-      </c>
-      <c r="D470" t="s">
-        <v>1309</v>
-      </c>
-      <c r="E470">
-        <v>3</v>
-      </c>
-      <c r="F470" t="b">
-        <v>1</v>
-      </c>
-      <c r="G470">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="471" spans="1:7">
-      <c r="A471" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="B471" t="s">
-        <v>968</v>
-      </c>
-      <c r="C471" t="s">
-        <v>676</v>
-      </c>
-      <c r="D471" t="s">
-        <v>1310</v>
-      </c>
-      <c r="E471">
-        <v>3</v>
-      </c>
-      <c r="F471" t="b">
-        <v>1</v>
-      </c>
-      <c r="G471">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="472" spans="1:7">
-      <c r="A472" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="B472" t="s">
-        <v>968</v>
-      </c>
-      <c r="C472" t="s">
-        <v>677</v>
-      </c>
-      <c r="D472" t="s">
-        <v>901</v>
-      </c>
-      <c r="E472">
-        <v>3</v>
-      </c>
-      <c r="F472" t="b">
-        <v>1</v>
-      </c>
-      <c r="G472">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="473" spans="1:7">
-      <c r="A473" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="B473" t="s">
-        <v>968</v>
-      </c>
-      <c r="C473" t="s">
-        <v>678</v>
-      </c>
-      <c r="D473" t="s">
-        <v>902</v>
-      </c>
-      <c r="E473">
-        <v>3</v>
-      </c>
-      <c r="F473" t="b">
-        <v>1</v>
-      </c>
-      <c r="G473">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="474" spans="1:7">
-      <c r="A474" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="B474" t="s">
-        <v>968</v>
-      </c>
-      <c r="C474" t="s">
-        <v>679</v>
-      </c>
-      <c r="D474" t="s">
-        <v>1311</v>
-      </c>
-      <c r="E474">
-        <v>3</v>
-      </c>
-      <c r="F474" t="b">
-        <v>1</v>
-      </c>
-      <c r="G474">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="475" spans="1:7">
-      <c r="A475" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="B475" t="s">
-        <v>960</v>
-      </c>
-      <c r="C475" t="s">
-        <v>680</v>
-      </c>
-      <c r="D475" t="s">
-        <v>904</v>
-      </c>
-      <c r="E475">
-        <v>3</v>
-      </c>
-      <c r="F475" t="b">
-        <v>1</v>
-      </c>
-      <c r="G475">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="476" spans="1:7">
-      <c r="A476" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="B476" t="s">
-        <v>960</v>
-      </c>
-      <c r="C476" t="s">
-        <v>681</v>
-      </c>
-      <c r="D476" t="s">
-        <v>1312</v>
-      </c>
-      <c r="E476">
-        <v>3</v>
-      </c>
-      <c r="F476" t="b">
-        <v>1</v>
-      </c>
-      <c r="G476">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="477" spans="1:7">
-      <c r="A477" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="B477" t="s">
-        <v>960</v>
-      </c>
-      <c r="C477" t="s">
-        <v>685</v>
-      </c>
-      <c r="D477" t="s">
-        <v>908</v>
-      </c>
-      <c r="E477">
-        <v>3</v>
-      </c>
-      <c r="F477" t="b">
-        <v>1</v>
-      </c>
-      <c r="G477">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="478" spans="1:7">
-      <c r="A478" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="B478" t="s">
-        <v>960</v>
-      </c>
-      <c r="C478" t="s">
-        <v>686</v>
-      </c>
-      <c r="D478" t="s">
-        <v>909</v>
-      </c>
-      <c r="E478">
-        <v>3</v>
-      </c>
-      <c r="F478" t="b">
-        <v>1</v>
-      </c>
-      <c r="G478">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="479" spans="1:7">
-      <c r="A479" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="B479" t="s">
-        <v>960</v>
-      </c>
-      <c r="C479" t="s">
-        <v>687</v>
-      </c>
-      <c r="D479" t="s">
-        <v>1261</v>
-      </c>
-      <c r="E479">
-        <v>3</v>
-      </c>
-      <c r="F479" t="b">
-        <v>1</v>
-      </c>
-      <c r="G479">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="480" spans="1:7">
-      <c r="A480" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="B480" t="s">
-        <v>960</v>
-      </c>
-      <c r="C480" t="s">
-        <v>688</v>
-      </c>
-      <c r="D480" t="s">
-        <v>911</v>
-      </c>
-      <c r="E480">
-        <v>3</v>
-      </c>
-      <c r="F480" t="b">
-        <v>1</v>
-      </c>
-      <c r="G480">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="481" spans="1:7">
-      <c r="A481" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="B481" t="s">
-        <v>960</v>
-      </c>
-      <c r="C481" t="s">
-        <v>689</v>
-      </c>
-      <c r="D481" t="s">
-        <v>912</v>
-      </c>
-      <c r="E481">
-        <v>3</v>
-      </c>
-      <c r="F481" t="b">
-        <v>1</v>
-      </c>
-      <c r="G481">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="482" spans="1:7">
-      <c r="A482" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="B482" t="s">
-        <v>962</v>
-      </c>
-      <c r="C482" t="s">
-        <v>695</v>
-      </c>
-      <c r="D482" t="s">
-        <v>1313</v>
-      </c>
-      <c r="E482">
-        <v>3</v>
-      </c>
-      <c r="F482" t="b">
-        <v>1</v>
-      </c>
-      <c r="G482">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="483" spans="1:7">
-      <c r="A483" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="B483" t="s">
-        <v>962</v>
-      </c>
-      <c r="C483" t="s">
-        <v>701</v>
-      </c>
-      <c r="D483" t="s">
-        <v>1314</v>
-      </c>
-      <c r="E483">
-        <v>3</v>
-      </c>
-      <c r="F483" t="b">
-        <v>1</v>
-      </c>
-      <c r="G483">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="484" spans="1:7">
-      <c r="A484" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="B484" t="s">
-        <v>963</v>
-      </c>
-      <c r="C484" t="s">
-        <v>783</v>
-      </c>
-      <c r="D484" t="s">
-        <v>932</v>
-      </c>
-      <c r="E484">
-        <v>3</v>
-      </c>
-      <c r="F484" t="b">
-        <v>1</v>
-      </c>
-      <c r="G484">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="485" spans="1:7">
-      <c r="A485" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="B485" t="s">
-        <v>967</v>
-      </c>
-      <c r="C485" t="s">
-        <v>799</v>
-      </c>
-      <c r="D485" t="s">
-        <v>1134</v>
-      </c>
-      <c r="E485">
-        <v>1</v>
-      </c>
-      <c r="F485" t="b">
-        <v>1</v>
-      </c>
-      <c r="G485">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="486" spans="1:7">
-      <c r="A486" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="B486" t="s">
-        <v>967</v>
-      </c>
-      <c r="C486" t="s">
-        <v>800</v>
-      </c>
-      <c r="D486" t="s">
-        <v>1315</v>
-      </c>
-      <c r="E486">
-        <v>1</v>
-      </c>
-      <c r="F486" t="b">
-        <v>1</v>
-      </c>
-      <c r="G486">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="487" spans="1:7">
-      <c r="A487" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="B487" t="s">
-        <v>967</v>
-      </c>
-      <c r="C487" t="s">
-        <v>801</v>
-      </c>
-      <c r="D487" t="s">
-        <v>1316</v>
-      </c>
-      <c r="E487">
-        <v>1</v>
-      </c>
-      <c r="F487" t="b">
-        <v>1</v>
-      </c>
-      <c r="G487">
         <v>1</v>
       </c>
     </row>
